--- a/biology/Médecine/Syndrome_des_hamartomes_par_mutation_du_gène_PTEN/Syndrome_des_hamartomes_par_mutation_du_gène_PTEN.xlsx
+++ b/biology/Médecine/Syndrome_des_hamartomes_par_mutation_du_gène_PTEN/Syndrome_des_hamartomes_par_mutation_du_gène_PTEN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_des_hamartomes_par_mutation_du_g%C3%A8ne_PTEN</t>
+          <t>Syndrome_des_hamartomes_par_mutation_du_gène_PTEN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome des hamartomes par mutation du gène PTEN comprend le syndrome de Cowden, le syndrome de Bannayan-Riley-Ruvalcaba, le syndrome de Protée et le syndrome de Protée-like.
 Le syndrome de Cowden est un syndrome avec de multiples hamartomes et à haut risque de tumeurs bénignes ou malignes de la thyroïde, du sein ou de l'endomètre. Les individus atteints ont une macrocéphalie, des trichilemmomes, et des papules papillomateuses vers 20 ans. Le risque de développer un cancer du sein est compris entre 25 et 50 % avec un âge de diagnostic entre 38 et 46 ans. Le risque de développer un cancer de la thyroïde est environ de 10 %. Le risque de développer un cancer de l'endomètre est compris entre 5 et 10 %.
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_des_hamartomes_par_mutation_du_g%C3%A8ne_PTEN</t>
+          <t>Syndrome_des_hamartomes_par_mutation_du_gène_PTEN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,9 +529,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(en) Kevin M Zbuk, Jennifer L Stein, Charis Eng « PTEN Hamartoma Tumor Syndrome » in GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Kevin M Zbuk, Jennifer L Stein, Charis Eng « PTEN Hamartoma Tumor Syndrome » in GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 
  Portail de la médecine                     </t>
         </is>
       </c>
